--- a/MobileApi/DataFolder/Archive/WoodyPlant/WoodyPlant_Archive_data2019-01-03--14-36-56.xlsx
+++ b/MobileApi/DataFolder/Archive/WoodyPlant/WoodyPlant_Archive_data2019-01-03--14-36-56.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Projects\TestingMobileApi201810011322\MobileApi\DataFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Projects\TestingMobileApi201810011322\MobileApi\DataFolder\Archive\WoodyPlant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4F6D8133-4C1E-4BC3-B4E8-A7FF8CF9A22F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8E7E5F-89C1-4165-9B65-1D75B6612E2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14374" windowHeight="4697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9870,65 +9870,65 @@
   <dimension ref="A1:AX199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A175" sqref="A175:XFD175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.84375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.3046875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="160" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="238.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="238.15234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="67.3046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="143" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="58.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="58.15234375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.53515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="49" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="236.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="228.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="138.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="97.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="74.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="241.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="235.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="152.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="98.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="236.15234375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="228.15234375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="138.3046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.84375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="60.15234375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="97.84375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="74.53515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="241.3046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="39.53515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="58.3828125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.53515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="235.84375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="152.53515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="98.3828125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="237" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="235.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="161.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="235.3046875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.3046875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.3046875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="255.69140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="161.3046875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="16" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="255.69140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="37.53515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.84375" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="170" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="72.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="237.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="124.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="153.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="72.69140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="237.15234375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="124.69140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="153.15234375" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="177" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="237.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="255.69140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="237.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>3077</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A2" s="11">
         <v>1097</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>19</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>24</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1098</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>57</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>70</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>71</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>73</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>99</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1138</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>105</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1108</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>129</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1047</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>172</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>173</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="19" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>174</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="20" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>175</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="21" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>176</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>177</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="23" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>184</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="24" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>188</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="25" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>187</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>1241</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="27" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>1191</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="28" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>214</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="29" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>247</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="30" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>248</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="31" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>249</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="32" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>253</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="33" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>254</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>1099</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="35" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>257</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="36" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>550</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="37" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>259</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="38" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>5</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="39" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>271</v>
       </c>
@@ -15770,7 +15770,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="40" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>273</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="41" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>275</v>
       </c>
@@ -16072,7 +16072,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="42" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>293</v>
       </c>
@@ -16222,7 +16222,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="43" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>1029</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="44" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>308</v>
       </c>
@@ -16520,7 +16520,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="45" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>309</v>
       </c>
@@ -16670,7 +16670,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="46" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>310</v>
       </c>
@@ -16820,7 +16820,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="47" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>1233</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="48" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>311</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="49" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>312</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="50" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>313</v>
       </c>
@@ -17426,7 +17426,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="51" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>1234</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="52" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>317</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>328</v>
       </c>
@@ -17882,7 +17882,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="54" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>329</v>
       </c>
@@ -18032,7 +18032,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="55" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>357</v>
       </c>
@@ -18182,7 +18182,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="56" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>365</v>
       </c>
@@ -18334,7 +18334,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="57" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>4</v>
       </c>
@@ -18486,7 +18486,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="58" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>370</v>
       </c>
@@ -18638,7 +18638,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="59" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>371</v>
       </c>
@@ -18790,7 +18790,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="60" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>374</v>
       </c>
@@ -18942,7 +18942,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="61" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>380</v>
       </c>
@@ -19092,7 +19092,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="62" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>409</v>
       </c>
@@ -19244,7 +19244,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="63" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>413</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="64" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>416</v>
       </c>
@@ -19544,7 +19544,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="65" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>417</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="66" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>418</v>
       </c>
@@ -19840,7 +19840,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="67" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>437</v>
       </c>
@@ -19990,7 +19990,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="68" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>438</v>
       </c>
@@ -20140,7 +20140,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="69" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>1211</v>
       </c>
@@ -20288,7 +20288,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="70" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>1100</v>
       </c>
@@ -20438,7 +20438,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="71" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>445</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="72" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>497</v>
       </c>
@@ -20740,7 +20740,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="73" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>1215</v>
       </c>
@@ -20892,7 +20892,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="74" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>1216</v>
       </c>
@@ -21042,7 +21042,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="75" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>502</v>
       </c>
@@ -21192,7 +21192,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="76" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>511</v>
       </c>
@@ -21342,7 +21342,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="77" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>513</v>
       </c>
@@ -21490,7 +21490,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="78" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>1201</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="79" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>543</v>
       </c>
@@ -21786,7 +21786,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="80" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>544</v>
       </c>
@@ -21936,7 +21936,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="81" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>1069</v>
       </c>
@@ -22086,7 +22086,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="82" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>581</v>
       </c>
@@ -22234,7 +22234,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="83" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>593</v>
       </c>
@@ -22384,7 +22384,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="84" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>596</v>
       </c>
@@ -22536,7 +22536,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="85" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>628</v>
       </c>
@@ -22686,7 +22686,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="86" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>648</v>
       </c>
@@ -22836,7 +22836,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="87" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>652</v>
       </c>
@@ -22986,7 +22986,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="88" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>653</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="89" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>654</v>
       </c>
@@ -23288,7 +23288,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="90" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>655</v>
       </c>
@@ -23440,7 +23440,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="91" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>656</v>
       </c>
@@ -23590,7 +23590,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="92" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>1196</v>
       </c>
@@ -23738,7 +23738,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="93" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>688</v>
       </c>
@@ -23888,7 +23888,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="94" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>695</v>
       </c>
@@ -24038,7 +24038,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="95" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>698</v>
       </c>
@@ -24190,7 +24190,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="96" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>708</v>
       </c>
@@ -24342,7 +24342,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="97" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>731</v>
       </c>
@@ -24494,7 +24494,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="98" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>732</v>
       </c>
@@ -24644,7 +24644,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="99" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>740</v>
       </c>
@@ -24792,7 +24792,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="100" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>1224</v>
       </c>
@@ -24940,7 +24940,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="101" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>754</v>
       </c>
@@ -25090,7 +25090,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="102" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>755</v>
       </c>
@@ -25238,7 +25238,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="103" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>756</v>
       </c>
@@ -25386,7 +25386,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="104" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>758</v>
       </c>
@@ -25536,7 +25536,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="105" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>759</v>
       </c>
@@ -25686,7 +25686,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="106" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>760</v>
       </c>
@@ -25836,7 +25836,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="107" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>761</v>
       </c>
@@ -25988,7 +25988,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="108" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>762</v>
       </c>
@@ -26138,7 +26138,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="109" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>763</v>
       </c>
@@ -26288,7 +26288,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="110" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>788</v>
       </c>
@@ -26438,7 +26438,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="111" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>789</v>
       </c>
@@ -26588,7 +26588,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="112" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>790</v>
       </c>
@@ -26738,7 +26738,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="113" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>791</v>
       </c>
@@ -26888,7 +26888,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="114" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>792</v>
       </c>
@@ -27038,7 +27038,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="115" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>1235</v>
       </c>
@@ -27190,7 +27190,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="116" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>805</v>
       </c>
@@ -27342,7 +27342,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="117" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>809</v>
       </c>
@@ -27492,7 +27492,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="118" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>1102</v>
       </c>
@@ -27642,7 +27642,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="119" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>820</v>
       </c>
@@ -27794,7 +27794,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="120" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>12</v>
       </c>
@@ -27946,7 +27946,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="121" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>1170</v>
       </c>
@@ -28098,7 +28098,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="122" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>1162</v>
       </c>
@@ -28248,7 +28248,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="123" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>822</v>
       </c>
@@ -28400,7 +28400,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="124" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>1103</v>
       </c>
@@ -28550,7 +28550,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="125" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>1236</v>
       </c>
@@ -28700,7 +28700,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="126" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>1104</v>
       </c>
@@ -28848,7 +28848,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="127" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>833</v>
       </c>
@@ -29000,7 +29000,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="128" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>834</v>
       </c>
@@ -29150,7 +29150,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="129" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>835</v>
       </c>
@@ -29298,7 +29298,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="130" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>836</v>
       </c>
@@ -29448,7 +29448,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="131" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>837</v>
       </c>
@@ -29598,7 +29598,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="132" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>839</v>
       </c>
@@ -29746,7 +29746,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="133" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>1106</v>
       </c>
@@ -29898,7 +29898,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="134" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>838</v>
       </c>
@@ -30046,7 +30046,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="135" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>840</v>
       </c>
@@ -30194,7 +30194,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="136" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>841</v>
       </c>
@@ -30344,7 +30344,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="137" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>843</v>
       </c>
@@ -30492,7 +30492,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="138" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>844</v>
       </c>
@@ -30642,7 +30642,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="139" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>845</v>
       </c>
@@ -30792,7 +30792,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="140" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>847</v>
       </c>
@@ -30944,7 +30944,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="141" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>848</v>
       </c>
@@ -31096,7 +31096,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="142" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>849</v>
       </c>
@@ -31248,7 +31248,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="143" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>850</v>
       </c>
@@ -31396,7 +31396,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="144" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>862</v>
       </c>
@@ -31546,7 +31546,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="145" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>863</v>
       </c>
@@ -31698,7 +31698,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="146" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>864</v>
       </c>
@@ -31846,7 +31846,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="147" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>865</v>
       </c>
@@ -31994,7 +31994,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="148" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>867</v>
       </c>
@@ -32144,7 +32144,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="149" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>1237</v>
       </c>
@@ -32294,7 +32294,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="150" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>869</v>
       </c>
@@ -32444,7 +32444,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="151" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>870</v>
       </c>
@@ -32594,7 +32594,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="152" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>872</v>
       </c>
@@ -32744,7 +32744,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="153" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>1242</v>
       </c>
@@ -32894,7 +32894,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="154" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>1107</v>
       </c>
@@ -33044,7 +33044,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="155" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>1238</v>
       </c>
@@ -33194,7 +33194,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="156" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>1177</v>
       </c>
@@ -33344,7 +33344,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="157" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>873</v>
       </c>
@@ -33494,7 +33494,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="158" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>1148</v>
       </c>
@@ -33646,7 +33646,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="159" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>874</v>
       </c>
@@ -33796,7 +33796,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="160" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>1239</v>
       </c>
@@ -33946,7 +33946,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="161" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>876</v>
       </c>
@@ -34098,7 +34098,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="162" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>868</v>
       </c>
@@ -34250,7 +34250,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="163" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>875</v>
       </c>
@@ -34400,7 +34400,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="164" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>1221</v>
       </c>
@@ -34550,7 +34550,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="165" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>871</v>
       </c>
@@ -34700,7 +34700,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="166" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>880</v>
       </c>
@@ -34850,7 +34850,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="167" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>881</v>
       </c>
@@ -35000,7 +35000,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="168" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>1240</v>
       </c>
@@ -35150,7 +35150,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="169" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>884</v>
       </c>
@@ -35298,7 +35298,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="170" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>891</v>
       </c>
@@ -35446,7 +35446,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="171" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>903</v>
       </c>
@@ -35596,7 +35596,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="172" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>905</v>
       </c>
@@ -35746,7 +35746,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="173" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>907</v>
       </c>
@@ -35896,7 +35896,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="174" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:50" ht="15.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>908</v>
       </c>
@@ -36046,7 +36046,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="175" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>909</v>
       </c>
@@ -36196,7 +36196,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="176" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>910</v>
       </c>
@@ -36346,7 +36346,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="177" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>913</v>
       </c>
@@ -36496,7 +36496,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="178" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>914</v>
       </c>
@@ -36646,7 +36646,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="179" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>939</v>
       </c>
@@ -36798,7 +36798,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="180" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>1194</v>
       </c>
@@ -36950,7 +36950,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="181" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>1206</v>
       </c>
@@ -37098,7 +37098,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="182" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>956</v>
       </c>
@@ -37248,7 +37248,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="183" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>1063</v>
       </c>
@@ -37398,7 +37398,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="184" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>957</v>
       </c>
@@ -37546,7 +37546,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="185" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>958</v>
       </c>
@@ -37694,7 +37694,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="186" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>961</v>
       </c>
@@ -37846,7 +37846,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="187" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>960</v>
       </c>
@@ -37998,7 +37998,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="188" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>1045</v>
       </c>
@@ -38148,7 +38148,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="189" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>988</v>
       </c>
@@ -38298,7 +38298,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="190" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>998</v>
       </c>
@@ -38450,7 +38450,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="191" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>999</v>
       </c>
@@ -38600,7 +38600,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="192" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>1008</v>
       </c>
@@ -38748,7 +38748,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="193" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>1010</v>
       </c>
@@ -38898,7 +38898,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="194" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>1011</v>
       </c>
@@ -39046,7 +39046,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="195" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>1134</v>
       </c>
@@ -39196,7 +39196,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="196" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>1025</v>
       </c>
@@ -39348,7 +39348,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="197" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>1030</v>
       </c>
@@ -39496,7 +39496,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="198" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>1038</v>
       </c>
@@ -39644,7 +39644,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="199" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>1039</v>
       </c>
